--- a/data/excel/cheques_2025.xlsx
+++ b/data/excel/cheques_2025.xlsx
@@ -27,9 +27,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -52,8 +50,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,8 +85,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -464,46 +464,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -513,15 +517,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -538,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -548,46 +572,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -597,15 +625,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -622,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -632,46 +680,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -681,15 +733,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -706,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -716,46 +788,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -765,15 +841,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -790,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -800,46 +896,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -849,15 +949,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -874,7 +994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -884,46 +1004,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -933,15 +1057,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -958,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -968,46 +1112,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1017,15 +1165,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1042,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1052,46 +1220,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1101,15 +1273,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1126,7 +1318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1136,46 +1328,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1185,15 +1381,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1210,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1220,46 +1436,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1269,15 +1489,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1286,42 +1526,60 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - Agence 03</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1323</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>31/07/2025</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>CHQ</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>21232</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Al Barid Bank</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>dsdsd</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>121</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>45869</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>ENCAISSE</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1334,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1344,46 +1602,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1393,19 +1655,101 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>CHQ</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - Agence 03</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5445</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1418,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1428,46 +1772,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date d'émission</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Type de Règlement</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Numéro</t>
+          <t>Numéro du chèque</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banque</t>
+          <t>Banque/Agence</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Propriétaire</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Déposant</t>
+          <t>Nom du déposant</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1477,15 +1825,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Date échéance</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Date d'échéance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date de Création</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Facture</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Date de facture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>

--- a/data/excel/cheques_2025.xlsx
+++ b/data/excel/cheques_2025.xlsx
@@ -79,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -89,6 +89,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1592,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1750,6 +1755,180 @@
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>CHQ</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>21231</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - Agence 03</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>CHQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13232</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - Agence 03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>dfeff</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>12123</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>CHQ</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>32323</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - Agence 02</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Fikri</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>wewe</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>32232</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>EN ATTENTE</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/cheques_2025.xlsx
+++ b/data/excel/cheques_2025.xlsx
@@ -27,7 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -79,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -89,11 +91,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -507,50 +514,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -567,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -615,50 +627,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -675,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -723,50 +740,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -783,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -831,50 +853,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -891,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -939,50 +966,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -999,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1047,50 +1079,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1107,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1155,50 +1192,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1215,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1263,50 +1305,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1323,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1371,50 +1418,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -1431,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1479,112 +1531,59 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>21232</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Al Barid Bank - Agence 03</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Fikri</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>dsdsd</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1323</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>MAD</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>31/07/2025</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>30/07/2025</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>EN ATTENTE</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1597,7 +1596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1645,59 +1644,64 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>31/07/2025</t>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1707,228 +1711,124 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>21232</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Al Barid Bank - Agence 03</t>
+          <t>Al Barid Bank - sds</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>Al Barid Bank - sds</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>Fikri</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>dsdsd</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>5445</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>MAD</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>07/08/2025</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>30/07/2025</t>
-        </is>
+      <c r="J2" s="5" t="n">
+        <v>45870</v>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>EN ATTENTE</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>IMPAYE</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr"/>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>CHQ</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>21231</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Al Barid Bank - Agence 03</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>23243</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - sds</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Al Barid Bank - sds</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Fikri</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>fdfdf</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>1212</v>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>1232</v>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
         <is>
           <t>MAD</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>EN ATTENTE</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="inlineStr"/>
-      <c r="N3" s="5" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>CHQ</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13232</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Al Barid Bank - Agence 03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Fikri</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>dfeff</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>12123</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>MAD</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>EN ATTENTE</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>CHQ</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>32323</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Al Barid Bank - Agence 02</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Fikri</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>wewe</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>32232</v>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>MAD</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>01/08/2025</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>EN ATTENTE</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>EN_ATTENTE</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr"/>
+      <c r="N3" s="8" t="inlineStr"/>
+      <c r="O3" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1941,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1989,50 +1889,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Banque de dépôts - Agence</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Nom du déposant</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Montant</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Devise</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date d'échéance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Date de Création</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N° Facture</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Date de facture</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
